--- a/Approach/1 - Communication/all sentences - labeled.xlsx
+++ b/Approach/1 - Communication/all sentences - labeled.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\Communication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\1 - Communication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE97D3-FA0E-4781-B43B-2976DED175C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6BA1F0-78F4-424D-9225-ED7F9DF6D7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6843" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6843" uniqueCount="979">
   <si>
     <t>Sentence</t>
   </si>
@@ -2883,9 +2883,6 @@
     <t>1.2.2.2</t>
   </si>
   <si>
-    <t>Similar to "stating_general_goal" but the company somewhat hints at how they plan to achieve the goal.</t>
-  </si>
-  <si>
     <t>"Meanwhile, Volkswagen also plans to reduce the carbon output of its traditional gas vehicles, through greater efficiency gains or hybridization." (Volkswagen)</t>
   </si>
   <si>
@@ -2997,6 +2994,15 @@
   </si>
   <si>
     <t>The company is stating what they will do or want to achieve. In general, the company is stating intentions for the future regarding climate change.</t>
+  </si>
+  <si>
+    <t>The company is stating to have a target for the topic. For it to be a target claim, there should be a deadline for the company to achieve it (e.g. "by 2040" as in the example).</t>
+  </si>
+  <si>
+    <t>The company just states a general goal without details. It is similar to "declaration_of_target" because they may be stating their "commitments" but there are no details to it (for example, there is no deadline as for the "declaration_of_target").</t>
+  </si>
+  <si>
+    <t>Similar to "stating_general_goal" but the company somewhat hints at how they plan to achieve the goal. But, at the same time, there is no specific deadline as for the "declaration_of_target" label.</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3231,9 +3237,6 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3241,9 +3244,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3254,6 +3254,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3262,16 +3275,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3682,33 +3685,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E870D-9BA7-4860-9065-048DFA4CF68E}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
         <v>963</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="20" t="s">
         <v>964</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="25" t="s">
-        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -3739,51 +3742,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
+        <v>956</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>956</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>952</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3813,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>11</v>
@@ -3851,7 +3854,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>11</v>
@@ -3889,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>11</v>
@@ -3927,7 +3930,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>11</v>
@@ -3965,7 +3968,7 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>11</v>
@@ -4003,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
@@ -4041,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>11</v>
@@ -4076,10 +4079,10 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>11</v>
@@ -4114,10 +4117,10 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>11</v>
@@ -4152,10 +4155,10 @@
         <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>11</v>
@@ -4190,10 +4193,10 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>11</v>
@@ -4228,10 +4231,10 @@
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>11</v>
@@ -4266,10 +4269,10 @@
         <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>11</v>
@@ -4304,10 +4307,10 @@
         <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I16" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>11</v>
@@ -4342,10 +4345,10 @@
         <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>11</v>
@@ -4380,10 +4383,10 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>11</v>
@@ -4418,10 +4421,10 @@
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>11</v>
@@ -4456,10 +4459,10 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>11</v>
@@ -4494,10 +4497,10 @@
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>11</v>
@@ -4532,10 +4535,10 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>11</v>
@@ -4570,10 +4573,10 @@
         <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I23" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>11</v>
@@ -4608,10 +4611,10 @@
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I24" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>11</v>
@@ -4646,10 +4649,10 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>11</v>
@@ -4684,10 +4687,10 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>11</v>
@@ -4722,10 +4725,10 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>11</v>
@@ -4760,10 +4763,10 @@
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>11</v>
@@ -4798,10 +4801,10 @@
         <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I29" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>11</v>
@@ -4836,10 +4839,10 @@
         <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I30" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>11</v>
@@ -4874,10 +4877,10 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I31" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>11</v>
@@ -4912,10 +4915,10 @@
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I32" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>11</v>
@@ -4950,10 +4953,10 @@
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>11</v>
@@ -4988,10 +4991,10 @@
         <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>11</v>
@@ -5026,10 +5029,10 @@
         <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>11</v>
@@ -5064,10 +5067,10 @@
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>11</v>
@@ -5102,10 +5105,10 @@
         <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>11</v>
@@ -5140,10 +5143,10 @@
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I38" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>11</v>
@@ -5178,10 +5181,10 @@
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I39" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>11</v>
@@ -5216,10 +5219,10 @@
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I40" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>11</v>
@@ -5254,10 +5257,10 @@
         <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I41" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>11</v>
@@ -5292,10 +5295,10 @@
         <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>11</v>
@@ -5330,10 +5333,10 @@
         <v>31</v>
       </c>
       <c r="H43" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>11</v>
@@ -5368,10 +5371,10 @@
         <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I44" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>11</v>
@@ -5409,7 +5412,7 @@
         <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>11</v>
@@ -5444,7 +5447,7 @@
         <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>11</v>
@@ -5482,7 +5485,7 @@
         <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>11</v>
@@ -5517,7 +5520,7 @@
         <v>73</v>
       </c>
       <c r="I48" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>11</v>
@@ -5555,7 +5558,7 @@
         <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>11</v>
@@ -5593,7 +5596,7 @@
         <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>11</v>
@@ -5631,7 +5634,7 @@
         <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>11</v>
@@ -5666,7 +5669,7 @@
         <v>73</v>
       </c>
       <c r="I52" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>11</v>
@@ -5704,7 +5707,7 @@
         <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>11</v>
@@ -5739,7 +5742,7 @@
         <v>73</v>
       </c>
       <c r="I54" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>11</v>
@@ -5777,7 +5780,7 @@
         <v>70</v>
       </c>
       <c r="I55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>11</v>
@@ -5815,7 +5818,7 @@
         <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>11</v>
@@ -5853,7 +5856,7 @@
         <v>70</v>
       </c>
       <c r="I57" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>11</v>
@@ -5888,7 +5891,7 @@
         <v>73</v>
       </c>
       <c r="I58" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>11</v>
@@ -5926,7 +5929,7 @@
         <v>70</v>
       </c>
       <c r="I59" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>11</v>
@@ -5964,7 +5967,7 @@
         <v>70</v>
       </c>
       <c r="I60" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>11</v>
@@ -5999,7 +6002,7 @@
         <v>73</v>
       </c>
       <c r="I61" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>11</v>
@@ -6037,7 +6040,7 @@
         <v>70</v>
       </c>
       <c r="I62" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>11</v>
@@ -6072,7 +6075,7 @@
         <v>73</v>
       </c>
       <c r="I63" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>11</v>
@@ -6110,7 +6113,7 @@
         <v>70</v>
       </c>
       <c r="I64" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>11</v>
@@ -6148,7 +6151,7 @@
         <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>11</v>
@@ -6186,7 +6189,7 @@
         <v>70</v>
       </c>
       <c r="I66" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>11</v>
@@ -6224,7 +6227,7 @@
         <v>70</v>
       </c>
       <c r="I67" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>11</v>
@@ -6262,7 +6265,7 @@
         <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>11</v>
@@ -6297,7 +6300,7 @@
         <v>73</v>
       </c>
       <c r="I69" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>11</v>
@@ -6335,7 +6338,7 @@
         <v>70</v>
       </c>
       <c r="I70" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>11</v>
@@ -6373,7 +6376,7 @@
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>11</v>
@@ -6411,7 +6414,7 @@
         <v>70</v>
       </c>
       <c r="I72" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>11</v>
@@ -6446,7 +6449,7 @@
         <v>73</v>
       </c>
       <c r="I73" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>11</v>
@@ -6481,7 +6484,7 @@
         <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>11</v>
@@ -6516,7 +6519,7 @@
         <v>73</v>
       </c>
       <c r="I75" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>11</v>
@@ -6551,7 +6554,7 @@
         <v>73</v>
       </c>
       <c r="I76" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>11</v>
@@ -6589,7 +6592,7 @@
         <v>70</v>
       </c>
       <c r="I77" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>11</v>
@@ -6624,7 +6627,7 @@
         <v>73</v>
       </c>
       <c r="I78" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>11</v>
@@ -6659,7 +6662,7 @@
         <v>73</v>
       </c>
       <c r="I79" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>11</v>
@@ -6697,7 +6700,7 @@
         <v>70</v>
       </c>
       <c r="I80" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>11</v>
@@ -6729,13 +6732,13 @@
         <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H81" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I81" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>11</v>
@@ -6767,13 +6770,13 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H82" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>11</v>
@@ -6805,13 +6808,13 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H83" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I83" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>11</v>
@@ -6843,13 +6846,13 @@
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H84" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I84" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>11</v>
@@ -6881,13 +6884,13 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H85" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I85" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>11</v>
@@ -6919,13 +6922,13 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H86" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I86" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>11</v>
@@ -6957,13 +6960,13 @@
         <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H87" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I87" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>11</v>
@@ -6995,13 +6998,13 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H88" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I88" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>11</v>
@@ -7033,13 +7036,13 @@
         <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H89" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I89" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>11</v>
@@ -7071,13 +7074,13 @@
         <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H90" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I90" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>11</v>
@@ -7109,13 +7112,13 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H91" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I91" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>11</v>
@@ -7147,13 +7150,13 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H92" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I92" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>11</v>
@@ -7185,13 +7188,13 @@
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H93" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I93" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>11</v>
@@ -7223,13 +7226,13 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H94" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I94" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>11</v>
@@ -7261,13 +7264,13 @@
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H95" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I95" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>11</v>
@@ -7299,13 +7302,13 @@
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H96" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I96" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>11</v>
@@ -7337,13 +7340,13 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H97" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I97" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>11</v>
@@ -7375,13 +7378,13 @@
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H98" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I98" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>11</v>
@@ -7413,13 +7416,13 @@
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H99" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I99" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>11</v>
@@ -7451,13 +7454,13 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H100" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I100" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>11</v>
@@ -7489,13 +7492,13 @@
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H101" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I101" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>11</v>
@@ -7527,13 +7530,13 @@
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H102" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I102" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>11</v>
@@ -7565,13 +7568,13 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H103" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I103" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>11</v>
@@ -7603,13 +7606,13 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H104" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I104" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>11</v>
@@ -7641,13 +7644,13 @@
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H105" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I105" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>11</v>
@@ -7679,13 +7682,13 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H106" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I106" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>11</v>
@@ -7717,13 +7720,13 @@
         <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H107" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I107" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>11</v>
@@ -7755,13 +7758,13 @@
         <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H108" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I108" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>11</v>
@@ -7793,13 +7796,13 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H109" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I109" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>11</v>
@@ -7831,13 +7834,13 @@
         <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H110" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I110" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>11</v>
@@ -7869,13 +7872,13 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H111" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I111" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>11</v>
@@ -7907,13 +7910,13 @@
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H112" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I112" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>11</v>
@@ -7945,13 +7948,13 @@
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H113" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I113" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>11</v>
@@ -7983,13 +7986,13 @@
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H114" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I114" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>11</v>
@@ -8021,13 +8024,13 @@
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H115" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I115" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>11</v>
@@ -8059,13 +8062,13 @@
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H116" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I116" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>11</v>
@@ -8097,13 +8100,13 @@
         <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H117" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I117" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>11</v>
@@ -8135,13 +8138,13 @@
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H118" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I118" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>11</v>
@@ -8173,13 +8176,13 @@
         <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H119" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I119" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>11</v>
@@ -8211,13 +8214,13 @@
         <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H120" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I120" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>11</v>
@@ -8249,13 +8252,13 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H121" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I121" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>11</v>
@@ -8287,13 +8290,13 @@
         <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H122" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I122" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>11</v>
@@ -8325,13 +8328,13 @@
         <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H123" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I123" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>11</v>
@@ -8363,13 +8366,13 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H124" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I124" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>11</v>
@@ -8401,13 +8404,13 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H125" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I125" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>11</v>
@@ -8439,13 +8442,13 @@
         <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H126" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I126" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>11</v>
@@ -8477,13 +8480,13 @@
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H127" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I127" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>11</v>
@@ -8515,13 +8518,13 @@
         <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H128" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I128" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>11</v>
@@ -8553,13 +8556,13 @@
         <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H129" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I129" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>11</v>
@@ -8591,13 +8594,13 @@
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H130" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I130" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>11</v>
@@ -8629,13 +8632,13 @@
         <v>11</v>
       </c>
       <c r="G131" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H131" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I131" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>11</v>
@@ -8667,13 +8670,13 @@
         <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H132" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I132" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>11</v>
@@ -8705,13 +8708,13 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H133" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I133" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>11</v>
@@ -8743,13 +8746,13 @@
         <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H134" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I134" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>11</v>
@@ -8781,13 +8784,13 @@
         <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H135" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I135" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>11</v>
@@ -8819,13 +8822,13 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H136" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I136" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>11</v>
@@ -8857,13 +8860,13 @@
         <v>11</v>
       </c>
       <c r="G137" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H137" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I137" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>11</v>
@@ -8895,13 +8898,13 @@
         <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H138" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I138" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>11</v>
@@ -8933,13 +8936,13 @@
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H139" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I139" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>11</v>
@@ -8971,13 +8974,13 @@
         <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H140" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I140" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>11</v>
@@ -9009,13 +9012,13 @@
         <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H141" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I141" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>11</v>
@@ -9047,13 +9050,13 @@
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H142" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I142" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>11</v>
@@ -9085,13 +9088,13 @@
         <v>11</v>
       </c>
       <c r="G143" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H143" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I143" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>11</v>
@@ -9123,13 +9126,13 @@
         <v>11</v>
       </c>
       <c r="G144" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H144" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I144" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>11</v>
@@ -9161,13 +9164,13 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H145" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I145" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>11</v>
@@ -9199,13 +9202,13 @@
         <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H146" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I146" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>11</v>
@@ -9237,13 +9240,13 @@
         <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H147" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I147" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>11</v>
@@ -9275,13 +9278,13 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H148" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I148" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>11</v>
@@ -9313,13 +9316,13 @@
         <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H149" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I149" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>11</v>
@@ -9351,13 +9354,13 @@
         <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H150" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I150" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>11</v>
@@ -9389,13 +9392,13 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H151" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I151" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>11</v>
@@ -9430,10 +9433,10 @@
         <v>184</v>
       </c>
       <c r="H152" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I152" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>185</v>
@@ -9468,10 +9471,10 @@
         <v>187</v>
       </c>
       <c r="H153" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I153" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>185</v>
@@ -9506,10 +9509,10 @@
         <v>187</v>
       </c>
       <c r="H154" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I154" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>185</v>
@@ -9544,10 +9547,10 @@
         <v>184</v>
       </c>
       <c r="H155" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I155" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>185</v>
@@ -9582,10 +9585,10 @@
         <v>187</v>
       </c>
       <c r="H156" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I156" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>185</v>
@@ -9620,10 +9623,10 @@
         <v>184</v>
       </c>
       <c r="H157" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I157" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>185</v>
@@ -9658,10 +9661,10 @@
         <v>184</v>
       </c>
       <c r="H158" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I158" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>185</v>
@@ -9696,10 +9699,10 @@
         <v>184</v>
       </c>
       <c r="H159" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I159" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>185</v>
@@ -9734,10 +9737,10 @@
         <v>187</v>
       </c>
       <c r="H160" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I160" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>185</v>
@@ -9772,10 +9775,10 @@
         <v>184</v>
       </c>
       <c r="H161" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I161" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>185</v>
@@ -9810,10 +9813,10 @@
         <v>184</v>
       </c>
       <c r="H162" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I162" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>185</v>
@@ -9848,10 +9851,10 @@
         <v>187</v>
       </c>
       <c r="H163" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I163" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>185</v>
@@ -9886,10 +9889,10 @@
         <v>184</v>
       </c>
       <c r="H164" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I164" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>185</v>
@@ -9924,10 +9927,10 @@
         <v>184</v>
       </c>
       <c r="H165" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I165" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>185</v>
@@ -9962,10 +9965,10 @@
         <v>187</v>
       </c>
       <c r="H166" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I166" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>185</v>
@@ -10000,10 +10003,10 @@
         <v>184</v>
       </c>
       <c r="H167" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I167" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>185</v>
@@ -10038,10 +10041,10 @@
         <v>187</v>
       </c>
       <c r="H168" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I168" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>185</v>
@@ -10076,10 +10079,10 @@
         <v>184</v>
       </c>
       <c r="H169" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I169" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>185</v>
@@ -10114,10 +10117,10 @@
         <v>187</v>
       </c>
       <c r="H170" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I170" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>185</v>
@@ -10152,10 +10155,10 @@
         <v>187</v>
       </c>
       <c r="H171" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I171" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>185</v>
@@ -10190,10 +10193,10 @@
         <v>184</v>
       </c>
       <c r="H172" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I172" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>185</v>
@@ -10228,10 +10231,10 @@
         <v>187</v>
       </c>
       <c r="H173" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I173" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>185</v>
@@ -10266,10 +10269,10 @@
         <v>184</v>
       </c>
       <c r="H174" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I174" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>185</v>
@@ -10304,10 +10307,10 @@
         <v>187</v>
       </c>
       <c r="H175" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I175" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>185</v>
@@ -10342,10 +10345,10 @@
         <v>184</v>
       </c>
       <c r="H176" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I176" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>185</v>
@@ -10380,10 +10383,10 @@
         <v>184</v>
       </c>
       <c r="H177" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I177" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>185</v>
@@ -28166,8 +28169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2742448A-2C30-4C8B-9466-E6E00F7ABD61}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28278,7 +28281,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>911</v>
       </c>
@@ -28286,7 +28289,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>912</v>
+        <v>976</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>913</v>
@@ -28391,7 +28394,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>935</v>
       </c>
@@ -28399,13 +28402,13 @@
         <v>110</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>936</v>
+        <v>977</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>938</v>
       </c>
@@ -28413,10 +28416,10 @@
         <v>113</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>939</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -28424,13 +28427,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>942</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="120" x14ac:dyDescent="0.25">
@@ -28441,10 +28444,10 @@
         <v>187</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>944</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -28455,10 +28458,10 @@
         <v>184</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>946</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="120" x14ac:dyDescent="0.25">
@@ -28466,13 +28469,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>949</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -28521,7 +28524,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>892</v>
@@ -28537,7 +28540,7 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -28551,35 +28554,35 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>958</v>
+      <c r="C5" s="21" t="s">
+        <v>957</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>959</v>
+      <c r="C6" s="9" t="s">
+        <v>958</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -28593,7 +28596,7 @@
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -28607,8 +28610,8 @@
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>961</v>
+      <c r="C9" s="9" t="s">
+        <v>960</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>936</v>
@@ -28621,21 +28624,21 @@
       <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -28649,7 +28652,7 @@
       <c r="B12" s="8">
         <v>4</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -28663,8 +28666,8 @@
       <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>954</v>
+      <c r="C13" s="21" t="s">
+        <v>953</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>900</v>
@@ -28677,7 +28680,7 @@
       <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -28691,7 +28694,7 @@
       <c r="B15" s="8">
         <v>3</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -28705,21 +28708,21 @@
       <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>960</v>
+      <c r="C16" s="21" t="s">
+        <v>959</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>3</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="9" t="s">
         <v>926</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -28734,14 +28737,14 @@
       <c r="B18" s="8">
         <v>3</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>962</v>
+      <c r="C18" s="9" t="s">
+        <v>961</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>969</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>970</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -28749,40 +28752,40 @@
       <c r="B19" s="8">
         <v>4</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>946</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>4</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>944</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>949</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
